--- a/ky/downloads/data-excel/8.3.1.1.xlsx
+++ b/ky/downloads/data-excel/8.3.1.1.xlsx
@@ -220,7 +220,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,22 +350,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -528,7 +512,7 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
@@ -569,16 +553,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,16 +581,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,16 +602,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,7 +623,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,22 +644,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -686,9 +667,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -696,14 +674,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1030,45 +1014,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" customWidth="1"/>
+    <col min="4" max="20" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="54" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:20" ht="54" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="13" t="s">
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="P3" s="56"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="P3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1078,1105 +1060,1157 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2007</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>2008</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>2009</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>2010</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>2011</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>2012</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>2013</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>2014</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>2015</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>2016</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>2017</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <v>2018</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="14">
         <v>2019</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>2020</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="14">
         <v>2021</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="35.25" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="T4" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="35.25" customHeight="1">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>1514.8</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>1559.6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>1592.9</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>1589.7</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>1603.9</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>1602.8</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>1629.1</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>1653</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>1686.4</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>1683</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>1611.3</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>1686.9</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>1754.2</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <v>1586.9</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <v>1687.9</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>1698.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="16" t="s">
+      <c r="T5" s="25">
+        <v>1754.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>928.9</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>936.1</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>983.6</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27">
         <v>993.8</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>999.9</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>1008.4</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>1044.3</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>1040.5999999999999</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>1077.9000000000001</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <v>1095.7</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <v>1074.4000000000001</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <v>1131.7</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <v>1161.7</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>1032.4000000000001</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>1116.5999999999999</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <v>1109</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="27">
+        <v>1139.4000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>585.9</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>623.5</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>609.4</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>595.9</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>604</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>594.4</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="18">
         <v>584.79999999999995</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="18">
         <v>612.29999999999995</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>608.5</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <v>587.29999999999995</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <v>536.9</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <v>555.20000000000005</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>592.5</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <v>554.5</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="27">
         <v>571.29999999999995</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="27">
         <v>589.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="T8" s="27">
+        <v>615.20000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="21" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="43"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="61"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="42"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="59"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>129.69999999999999</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>130.19999999999999</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>139.19999999999999</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>128.9</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>120.5</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <v>109</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="18">
         <v>126.1</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="18">
         <v>108</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <v>101.7</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <v>85</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="18">
         <v>71.099999999999994</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="18">
         <v>76.5</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <v>75.3</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="27">
         <v>77.099999999999994</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="27">
         <v>80.599999999999994</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="27">
         <v>72.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="43" t="s">
+      <c r="T10" s="27">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>463.8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>485.6</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>492.5</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <v>500.9</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>502.9</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>497.3</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="18">
         <v>523</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="18">
         <v>516.5</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>516.1</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <v>518.70000000000005</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <v>499.3</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="18">
         <v>500.7</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="18">
         <v>503.5</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <v>460.7</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="27">
         <v>485.2</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <v>469.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="43" t="s">
+      <c r="T11" s="27">
+        <v>449.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>408.9</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>416.3</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>408.1</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>406.5</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>403.8</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>397.8</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="18">
         <v>411.3</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="18">
         <v>437.4</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>449.1</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <v>446.8</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <v>447.3</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="18">
         <v>463</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="18">
         <v>487</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <v>466.6</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="27">
         <v>491.8</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="27">
         <v>511.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="43" t="s">
+      <c r="T12" s="27">
+        <v>504.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>328.7</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>335.8</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>343.1</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>336.4</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>341.3</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <v>356</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <v>348.4</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>352</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>361.7</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <v>371.4</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <v>344.5</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <v>367.3</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="18">
         <v>373.4</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="27">
         <v>316.7</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="27">
         <v>334</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="27">
         <v>338.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="43" t="s">
+      <c r="T13" s="27">
+        <v>377.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>149.30000000000001</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>154</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>168.4</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>174.3</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>187.7</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>194.5</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <v>181.4</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="18">
         <v>197</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>207.4</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>209.4</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <v>204.3</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="18">
         <v>222.7</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="18">
         <v>240.8</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="27">
         <v>203.6</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="27">
         <v>222.4</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="27">
         <v>229.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="43" t="s">
+      <c r="T14" s="27">
+        <v>258.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>26</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>29</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>29.7</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>32.299999999999997</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>36.5</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>38</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="18">
         <v>31.5</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="18">
         <v>35.299999999999997</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <v>43.5</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <v>45.4</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <v>40.5</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="18">
         <v>52.6</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="18">
         <v>66.3</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="27">
         <v>57.8</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="27">
         <v>66.7</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="27">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="45" t="s">
+      <c r="T15" s="27">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>8.5</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>11.8</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>10.4</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>11.1</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>10.1</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>7.5</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>6.9</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="19">
         <v>7</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>6.3</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <v>4.3</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="18">
         <v>7.9</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="27">
         <v>4.3</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="27">
         <v>7.2</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="27">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="T16" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1">
+      <c r="A17" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="61"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="48" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="59"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>396.7</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>421.9</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>431.7</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>414.4</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>419.3</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="27">
         <v>408</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <v>418.6</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>433.7</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="27">
         <v>460</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="27">
         <v>489</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="27">
         <v>526.29999999999995</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="27">
         <v>541.6</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="27">
         <v>572</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="27">
         <v>542.79999999999995</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="27">
         <v>576.70000000000005</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="27">
         <v>601.29999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="48" t="s">
+      <c r="T18" s="27">
+        <v>647.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="27">
         <v>1118.0999999999999</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1137.7</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>1161.2</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>1175.2</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <v>1184.5999999999999</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <v>1194.8</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <v>1210.5</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <v>1219.3</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="27">
         <v>1226.5</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="27">
         <v>1194</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="27">
         <v>1085</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="27">
         <v>1145.3</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="27">
         <v>1182.2</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="27">
         <v>1044.0999999999999</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="27">
         <v>1111.2</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="27">
         <v>1097</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="23" customFormat="1">
-      <c r="A20" s="49" t="s">
+      <c r="T19" s="27">
+        <v>1107.4000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="22" customFormat="1">
+      <c r="A20" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="62"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="34" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="60"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <v>755.3</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>767</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>740.5</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="27">
         <v>720.7</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>719.4</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>711.4</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="27">
         <v>731.6</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="27">
         <v>749</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="27">
         <v>710.1</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="51">
         <v>656.5</v>
       </c>
-      <c r="N21" s="52">
+      <c r="N21" s="51">
         <v>497.7</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="27">
         <v>463</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="27">
         <v>444.5</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="27">
         <v>339.3</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="27">
         <v>355.2</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="27">
         <v>348.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="18.75">
-      <c r="A22" s="34" t="s">
+      <c r="T21" s="27">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18.75">
+      <c r="A22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>106.6</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>110.4</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>114.7</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="18">
         <v>114</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="18">
         <v>111.3</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>115.3</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="18">
         <v>102.2</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="18">
         <v>108.5</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="18">
         <v>117.7</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <v>117.1</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <v>160.5</v>
       </c>
-      <c r="O22" s="19">
+      <c r="O22" s="18">
         <v>225</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="18">
         <v>237.8</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="27">
         <v>230.4</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="27">
         <v>243.9</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="27">
         <v>235.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="34" t="s">
+      <c r="T22" s="27">
+        <v>243.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <v>172.5</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>180.9</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>204.7</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <v>197.7</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>204.9</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>222.4</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <v>210</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="18">
         <v>209.3</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="18">
         <v>222.7</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="19">
         <v>250.3</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>221.8</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="18">
         <v>217</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="18">
         <v>261.7</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="27">
         <v>270.5</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="27">
         <v>303.7</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="27">
         <v>302.10000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A24" s="38" t="s">
+      <c r="T23" s="27">
+        <v>298.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="40">
         <v>480.4</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="40">
         <v>501.4</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>533.1</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <v>557.20000000000005</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="40">
         <v>568.4</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="40">
         <v>553.70000000000005</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="40">
         <v>585.20000000000005</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="40">
         <v>586.20000000000005</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="40">
         <v>635.70000000000005</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="41">
         <v>659.1</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="41">
         <v>731.3</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="40">
         <v>781.9</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="40">
         <v>810.2</v>
       </c>
-      <c r="Q24" s="60">
+      <c r="Q24" s="58">
         <v>746.7</v>
       </c>
-      <c r="R24" s="63">
+      <c r="R24" s="61">
         <v>785.2</v>
       </c>
-      <c r="S24" s="64">
+      <c r="S24" s="62">
         <v>811.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="23" customFormat="1">
+      <c r="T24" s="62">
+        <v>871.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="22" customFormat="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2191,9 +2225,9 @@
       <c r="N25" s="2"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2208,9 +2242,9 @@
       <c r="N26" s="2"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2225,9 +2259,9 @@
       <c r="N27" s="2"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2242,9 +2276,9 @@
       <c r="N28" s="2"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2259,9 +2293,9 @@
       <c r="N29" s="2"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2276,9 +2310,9 @@
       <c r="N30" s="2"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
